--- a/Results/RQ4/correctness.xlsx
+++ b/Results/RQ4/correctness.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A6A135-C6ED-4B94-83D6-E2E29D7EB8B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EA081C-70EA-4A97-ACC8-BF9D07536D14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13845" yWindow="3375" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="12">
   <si>
     <t>Group</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,11 +105,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -390,19 +391,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1019,7 +1021,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>2</v>
@@ -1104,7 +1106,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>2</v>
@@ -1221,7 +1223,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>10</v>
       </c>
@@ -1238,7 +1240,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>10</v>
       </c>
@@ -1255,7 +1257,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>10</v>
       </c>
@@ -1272,7 +1274,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>11</v>
       </c>
@@ -1289,7 +1291,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>11</v>
       </c>
@@ -1306,7 +1308,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>11</v>
       </c>
@@ -1323,7 +1325,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>11</v>
       </c>
@@ -1340,7 +1342,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>11</v>
       </c>
@@ -1357,7 +1359,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>12</v>
       </c>
@@ -1371,10 +1373,11 @@
         <v>88</v>
       </c>
       <c r="E57" s="1">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>12</v>
       </c>
@@ -1391,7 +1394,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>12</v>
       </c>
@@ -1408,7 +1411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>12</v>
       </c>
@@ -1425,7 +1428,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>12</v>
       </c>
@@ -1442,7 +1445,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>13</v>
       </c>
@@ -1456,10 +1459,11 @@
         <v>75</v>
       </c>
       <c r="E62" s="1">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>13</v>
       </c>
@@ -1473,10 +1477,11 @@
         <v>77</v>
       </c>
       <c r="E63" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>13</v>
       </c>
@@ -1492,8 +1497,9 @@
       <c r="E64" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>13</v>
       </c>
@@ -1507,10 +1513,11 @@
         <v>55</v>
       </c>
       <c r="E65" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>13</v>
       </c>
@@ -1524,10 +1531,10 @@
         <v>70</v>
       </c>
       <c r="E66" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>14</v>
       </c>
@@ -1544,7 +1551,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>14</v>
       </c>
@@ -1561,7 +1568,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>14</v>
       </c>
@@ -1578,7 +1585,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>14</v>
       </c>
@@ -1595,7 +1602,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>14</v>
       </c>

--- a/Results/RQ4/correctness.xlsx
+++ b/Results/RQ4/correctness.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EA081C-70EA-4A97-ACC8-BF9D07536D14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE28603A-83A9-4DD2-A36F-BD187D92AA22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13845" yWindow="3375" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="12">
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Group</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,18 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(a) 3d-ascii-game</t>
-  </si>
-  <si>
-    <t>(b) itolapi</t>
-  </si>
-  <si>
-    <t>(c) koel</t>
-  </si>
-  <si>
-    <t>(d) mail_handler</t>
-  </si>
-  <si>
     <t>Average</t>
   </si>
   <si>
@@ -61,8 +53,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Participant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>(A) hony-random</t>
+  </si>
+  <si>
+    <t>(B) ipyrest</t>
+  </si>
+  <si>
+    <t>(C) lzdeb</t>
+  </si>
+  <si>
+    <t>(D) pendant</t>
   </si>
 </sst>
 </file>
@@ -107,10 +107,12 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -391,37 +393,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="2"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -429,16 +431,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2">
         <v>50</v>
-      </c>
-      <c r="E2" s="1">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -446,16 +448,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>31</v>
-      </c>
-      <c r="E3" s="1">
-        <v>69</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -463,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1">
-        <v>55</v>
-      </c>
-      <c r="E4" s="1">
-        <v>91</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -480,16 +482,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1">
-        <v>70</v>
-      </c>
-      <c r="E5" s="1">
-        <v>95</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
+        <v>47</v>
+      </c>
+      <c r="E5" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -497,16 +499,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1">
-        <v>53</v>
-      </c>
-      <c r="E6" s="1">
-        <v>83</v>
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2">
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -514,16 +516,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>81</v>
-      </c>
-      <c r="E7" s="1">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -531,16 +533,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>85</v>
-      </c>
-      <c r="E8" s="1">
-        <v>85</v>
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -548,16 +550,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1">
-        <v>100</v>
-      </c>
-      <c r="E9" s="1">
-        <v>100</v>
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>54</v>
+      </c>
+      <c r="E9" s="2">
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -565,16 +567,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1">
-        <v>90</v>
-      </c>
-      <c r="E10" s="1">
-        <v>90</v>
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <v>80</v>
+      </c>
+      <c r="E10" s="2">
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -582,16 +584,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1">
-        <v>88</v>
-      </c>
-      <c r="E11" s="1">
-        <v>93</v>
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>67</v>
+      </c>
+      <c r="E11" s="2">
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -599,16 +601,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1">
-        <v>94</v>
-      </c>
-      <c r="E12" s="1">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>58</v>
+      </c>
+      <c r="E12" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -616,16 +618,16 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>100</v>
-      </c>
-      <c r="E13" s="1">
-        <v>100</v>
+        <v>9</v>
+      </c>
+      <c r="D13" s="2">
+        <v>85</v>
+      </c>
+      <c r="E13" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -633,16 +635,16 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1">
-        <v>91</v>
-      </c>
-      <c r="E14" s="1">
-        <v>91</v>
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -650,16 +652,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1">
-        <v>90</v>
-      </c>
-      <c r="E15" s="1">
-        <v>95</v>
+        <v>11</v>
+      </c>
+      <c r="D15" s="2">
+        <v>80</v>
+      </c>
+      <c r="E15" s="2">
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -667,16 +669,16 @@
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1">
-        <v>93</v>
-      </c>
-      <c r="E16" s="1">
-        <v>97</v>
+        <v>5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>75</v>
+      </c>
+      <c r="E16" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -684,16 +686,16 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1">
-        <v>75</v>
-      </c>
-      <c r="E17" s="1">
-        <v>94</v>
+        <v>8</v>
+      </c>
+      <c r="D17" s="2">
+        <v>92</v>
+      </c>
+      <c r="E17" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -701,16 +703,16 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="1">
-        <v>31</v>
-      </c>
-      <c r="E18" s="1">
-        <v>69</v>
+        <v>9</v>
+      </c>
+      <c r="D18" s="2">
+        <v>90</v>
+      </c>
+      <c r="E18" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -718,16 +720,16 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="1">
-        <v>82</v>
-      </c>
-      <c r="E19" s="1">
-        <v>91</v>
+        <v>10</v>
+      </c>
+      <c r="D19" s="2">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -735,16 +737,16 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1">
-        <v>55</v>
-      </c>
-      <c r="E20" s="1">
-        <v>95</v>
+        <v>11</v>
+      </c>
+      <c r="D20" s="2">
+        <v>60</v>
+      </c>
+      <c r="E20" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -752,16 +754,16 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1">
-        <v>60</v>
-      </c>
-      <c r="E21" s="1">
-        <v>88</v>
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>78</v>
+      </c>
+      <c r="E21" s="2">
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -769,16 +771,16 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="1">
-        <v>19</v>
-      </c>
-      <c r="E22" s="1">
-        <v>37</v>
+        <v>8</v>
+      </c>
+      <c r="D22" s="2">
+        <v>33</v>
+      </c>
+      <c r="E22" s="2">
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -786,16 +788,16 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="1">
-        <v>54</v>
-      </c>
-      <c r="E23" s="1">
-        <v>77</v>
+        <v>9</v>
+      </c>
+      <c r="D23" s="2">
+        <v>70</v>
+      </c>
+      <c r="E23" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -803,16 +805,16 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="1">
-        <v>64</v>
-      </c>
-      <c r="E24" s="1">
-        <v>82</v>
+        <v>10</v>
+      </c>
+      <c r="D24" s="2">
+        <v>77</v>
+      </c>
+      <c r="E24" s="2">
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -820,16 +822,16 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="1">
-        <v>65</v>
-      </c>
-      <c r="E25" s="1">
-        <v>75</v>
+        <v>11</v>
+      </c>
+      <c r="D25" s="2">
+        <v>80</v>
+      </c>
+      <c r="E25" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -837,16 +839,16 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1">
-        <v>50</v>
-      </c>
-      <c r="E26" s="1">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2">
         <v>67</v>
+      </c>
+      <c r="E26" s="2">
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -854,16 +856,16 @@
         <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="1">
-        <v>100</v>
-      </c>
-      <c r="E27" s="1">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="D27" s="2">
+        <v>67</v>
+      </c>
+      <c r="E27" s="2">
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -871,16 +873,16 @@
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="1">
-        <v>62</v>
-      </c>
-      <c r="E28" s="1">
-        <v>100</v>
+        <v>9</v>
+      </c>
+      <c r="D28" s="2">
+        <v>65</v>
+      </c>
+      <c r="E28" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -888,16 +890,16 @@
         <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="1">
-        <v>45</v>
-      </c>
-      <c r="E29" s="1">
-        <v>55</v>
+        <v>10</v>
+      </c>
+      <c r="D29" s="2">
+        <v>54</v>
+      </c>
+      <c r="E29" s="2">
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -905,16 +907,16 @@
         <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="1">
+        <v>11</v>
+      </c>
+      <c r="D30" s="2">
+        <v>67</v>
+      </c>
+      <c r="E30" s="2">
         <v>80</v>
-      </c>
-      <c r="E30" s="1">
-        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -922,16 +924,16 @@
         <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="1">
-        <v>75</v>
-      </c>
-      <c r="E31" s="1">
-        <v>88</v>
+        <v>5</v>
+      </c>
+      <c r="D31" s="2">
+        <v>63</v>
+      </c>
+      <c r="E31" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -939,16 +941,16 @@
         <v>7</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="1">
-        <v>69</v>
-      </c>
-      <c r="E32" s="1">
-        <v>94</v>
+        <v>8</v>
+      </c>
+      <c r="D32" s="2">
+        <v>33</v>
+      </c>
+      <c r="E32" s="2">
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -956,16 +958,16 @@
         <v>7</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="1">
-        <v>85</v>
-      </c>
-      <c r="E33" s="1">
-        <v>85</v>
+        <v>9</v>
+      </c>
+      <c r="D33" s="2">
+        <v>25</v>
+      </c>
+      <c r="E33" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -973,16 +975,16 @@
         <v>7</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="1">
-        <v>82</v>
-      </c>
-      <c r="E34" s="1">
-        <v>100</v>
+        <v>10</v>
+      </c>
+      <c r="D34" s="2">
+        <v>62</v>
+      </c>
+      <c r="E34" s="2">
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -990,16 +992,16 @@
         <v>7</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="1">
-        <v>70</v>
-      </c>
-      <c r="E35" s="1">
-        <v>90</v>
+        <v>11</v>
+      </c>
+      <c r="D35" s="2">
+        <v>53</v>
+      </c>
+      <c r="E35" s="2">
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1007,16 +1009,16 @@
         <v>7</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="1">
-        <v>75</v>
-      </c>
-      <c r="E36" s="1">
-        <v>92</v>
+        <v>5</v>
+      </c>
+      <c r="D36" s="2">
+        <v>42</v>
+      </c>
+      <c r="E36" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1024,15 +1026,15 @@
         <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="1">
-        <v>100</v>
-      </c>
-      <c r="E37" s="1">
+        <v>8</v>
+      </c>
+      <c r="D37" s="2">
+        <v>92</v>
+      </c>
+      <c r="E37" s="2">
         <v>100</v>
       </c>
     </row>
@@ -1041,16 +1043,16 @@
         <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="1">
-        <v>77</v>
-      </c>
-      <c r="E38" s="1">
-        <v>85</v>
+        <v>9</v>
+      </c>
+      <c r="D38" s="2">
+        <v>90</v>
+      </c>
+      <c r="E38" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1058,16 +1060,16 @@
         <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="1">
-        <v>64</v>
-      </c>
-      <c r="E39" s="1">
-        <v>73</v>
+        <v>10</v>
+      </c>
+      <c r="D39" s="2">
+        <v>85</v>
+      </c>
+      <c r="E39" s="2">
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1075,16 +1077,16 @@
         <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="1">
-        <v>95</v>
-      </c>
-      <c r="E40" s="1">
-        <v>95</v>
+        <v>11</v>
+      </c>
+      <c r="D40" s="2">
+        <v>80</v>
+      </c>
+      <c r="E40" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1092,16 +1094,16 @@
         <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="1">
+        <v>5</v>
+      </c>
+      <c r="D41" s="2">
         <v>87</v>
       </c>
-      <c r="E41" s="1">
-        <v>90</v>
+      <c r="E41" s="2">
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1109,16 +1111,16 @@
         <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="1">
-        <v>100</v>
-      </c>
-      <c r="E42" s="1">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="D42" s="2">
+        <v>50</v>
+      </c>
+      <c r="E42" s="2">
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1126,16 +1128,16 @@
         <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="1">
-        <v>62</v>
-      </c>
-      <c r="E43" s="1">
-        <v>77</v>
+        <v>9</v>
+      </c>
+      <c r="D43" s="2">
+        <v>90</v>
+      </c>
+      <c r="E43" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1143,16 +1145,16 @@
         <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="1">
-        <v>100</v>
-      </c>
-      <c r="E44" s="1">
-        <v>100</v>
+        <v>10</v>
+      </c>
+      <c r="D44" s="2">
+        <v>62</v>
+      </c>
+      <c r="E44" s="2">
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1160,16 +1162,16 @@
         <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="1">
-        <v>100</v>
-      </c>
-      <c r="E45" s="1">
-        <v>100</v>
+        <v>11</v>
+      </c>
+      <c r="D45" s="2">
+        <v>87</v>
+      </c>
+      <c r="E45" s="2">
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1177,16 +1179,16 @@
         <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="1">
-        <v>92</v>
-      </c>
-      <c r="E46" s="1">
-        <v>95</v>
+        <v>5</v>
+      </c>
+      <c r="D46" s="2">
+        <v>75</v>
+      </c>
+      <c r="E46" s="2">
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1194,16 +1196,16 @@
         <v>10</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="1">
-        <v>100</v>
-      </c>
-      <c r="E47" s="1">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="D47" s="2">
+        <v>42</v>
+      </c>
+      <c r="E47" s="2">
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1211,412 +1213,407 @@
         <v>10</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="1">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2">
+        <v>80</v>
+      </c>
+      <c r="E48" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>10</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="2">
+        <v>54</v>
+      </c>
+      <c r="E49" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>10</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="2">
+        <v>93</v>
+      </c>
+      <c r="E50" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>10</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="2">
+        <v>70</v>
+      </c>
+      <c r="E51" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>11</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="2">
+        <v>50</v>
+      </c>
+      <c r="E52" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>11</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2">
+        <v>70</v>
+      </c>
+      <c r="E53" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>11</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="2">
+        <v>77</v>
+      </c>
+      <c r="E54" s="2">
         <v>92</v>
       </c>
-      <c r="E48" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>10</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="1">
-        <v>100</v>
-      </c>
-      <c r="E49" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>10</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="1">
-        <v>95</v>
-      </c>
-      <c r="E50" s="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>10</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="1">
-        <v>97</v>
-      </c>
-      <c r="E51" s="1">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>11</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="1">
-        <v>75</v>
-      </c>
-      <c r="E52" s="1">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>11</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="1">
-        <v>69</v>
-      </c>
-      <c r="E53" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>11</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="1">
-        <v>100</v>
-      </c>
-      <c r="E54" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>11</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="1">
+        <v>11</v>
+      </c>
+      <c r="D55" s="2">
         <v>80</v>
       </c>
-      <c r="E55" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E55" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>11</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="1">
-        <v>80</v>
-      </c>
-      <c r="E56" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D56" s="2">
+        <v>70</v>
+      </c>
+      <c r="E56" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>12</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="1">
-        <v>88</v>
-      </c>
-      <c r="E57" s="1">
-        <v>88</v>
-      </c>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="D57" s="2">
+        <v>67</v>
+      </c>
+      <c r="E57" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>12</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="1">
-        <v>69</v>
-      </c>
-      <c r="E58" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2">
+        <v>80</v>
+      </c>
+      <c r="E58" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>12</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="1">
-        <v>100</v>
-      </c>
-      <c r="E59" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="D59" s="2">
+        <v>77</v>
+      </c>
+      <c r="E59" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>12</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="1">
-        <v>70</v>
-      </c>
-      <c r="E60" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="D60" s="2">
+        <v>73</v>
+      </c>
+      <c r="E60" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>12</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="1">
-        <v>80</v>
-      </c>
-      <c r="E61" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D61" s="2">
+        <v>75</v>
+      </c>
+      <c r="E61" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>13</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="1">
-        <v>75</v>
-      </c>
-      <c r="E62" s="1">
-        <v>75</v>
-      </c>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="D62" s="2">
+        <v>92</v>
+      </c>
+      <c r="E62" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>13</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="1">
-        <v>77</v>
-      </c>
-      <c r="E63" s="1">
-        <v>85</v>
-      </c>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2">
+        <v>90</v>
+      </c>
+      <c r="E63" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>13</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="1">
-        <v>82</v>
-      </c>
-      <c r="E64" s="1">
-        <v>100</v>
-      </c>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="D64" s="2">
+        <v>77</v>
+      </c>
+      <c r="E64" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>13</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="1">
-        <v>55</v>
-      </c>
-      <c r="E65" s="1">
-        <v>70</v>
-      </c>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="D65" s="2">
+        <v>67</v>
+      </c>
+      <c r="E65" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>13</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="1">
-        <v>70</v>
-      </c>
-      <c r="E66" s="1">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D66" s="2">
+        <v>82</v>
+      </c>
+      <c r="E66" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>14</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" s="1">
-        <v>75</v>
-      </c>
-      <c r="E67" s="1">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="D67" s="2">
+        <v>50</v>
+      </c>
+      <c r="E67" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>14</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="1">
-        <v>77</v>
-      </c>
-      <c r="E68" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2">
+        <v>55</v>
+      </c>
+      <c r="E68" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>14</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="1">
-        <v>100</v>
-      </c>
-      <c r="E69" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="D69" s="2">
+        <v>77</v>
+      </c>
+      <c r="E69" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>14</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="1">
-        <v>85</v>
-      </c>
-      <c r="E70" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="D70" s="2">
+        <v>73</v>
+      </c>
+      <c r="E70" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>14</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="1">
-        <v>83</v>
-      </c>
-      <c r="E71" s="1">
-        <v>88</v>
+        <v>5</v>
+      </c>
+      <c r="D71" s="2">
+        <v>63</v>
+      </c>
+      <c r="E71" s="2">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
